--- a/Test_NearestPump_map_input.xlsx
+++ b/Test_NearestPump_map_input.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,73 +459,151 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UNBRANDED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CUMBRIA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10/08/2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>54.4390158776614</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.59314136496788</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>J38 DIESEL SERVICES TEBAY GORGE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CA10 3SS</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CA10 3RL</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>TEBAY INTERCHANGE</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PENRITH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Additive</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ESSO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>CUMBRIA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-08-27</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>14/08/2019</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>1.59</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Unleaded</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>54.4496536642495</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>-2.60998192868681</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>M6 TEBAY MOTORWAY SERVICE AREA NORTHBOUND</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>CA10 3SB</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="N3" t="n">
         <v>148.16</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O3" t="n">
         <v>147.9</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>CA10 3RL</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>M6 J38-39</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>PENRITH</t>
         </is>
